--- a/results/min_results_per_frame.xlsx
+++ b/results/min_results_per_frame.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C448"/>
+  <dimension ref="A1:C447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5408,17 +5408,6 @@
         <v>5.910991668701172</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" t="n">
-        <v>130</v>
-      </c>
-      <c r="B448" t="n">
-        <v>3631</v>
-      </c>
-      <c r="C448" t="n">
-        <v>5.670188426971436</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5430,7 +5419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C542"/>
+  <dimension ref="A1:C541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11403,17 +11392,6 @@
         <v>7.283039093017578</v>
       </c>
     </row>
-    <row r="542">
-      <c r="A542" t="n">
-        <v>780</v>
-      </c>
-      <c r="B542" t="n">
-        <v>5887</v>
-      </c>
-      <c r="C542" t="n">
-        <v>6.795814037322998</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11425,7 +11403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11659,17 +11637,6 @@
         <v>5.380950450897217</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>130</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5434</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8.686223030090332</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11681,7 +11648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C542"/>
+  <dimension ref="A1:C541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17706,17 +17673,6 @@
         <v>6.019171714782715</v>
       </c>
     </row>
-    <row r="542">
-      <c r="A542" t="n">
-        <v>130</v>
-      </c>
-      <c r="B542" t="n">
-        <v>6017</v>
-      </c>
-      <c r="C542" t="n">
-        <v>8.063213348388672</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17728,7 +17684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17819,17 +17775,6 @@
         <v>6.022099494934082</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>130</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5582</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.874401092529297</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17841,7 +17786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C611"/>
+  <dimension ref="A1:C610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24581,17 +24526,6 @@
         <v>7.183615207672119</v>
       </c>
     </row>
-    <row r="611">
-      <c r="A611" t="n">
-        <v>130</v>
-      </c>
-      <c r="B611" t="n">
-        <v>6203</v>
-      </c>
-      <c r="C611" t="n">
-        <v>9.32347297668457</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24603,7 +24537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C738"/>
+  <dimension ref="A1:C737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32730,17 +32664,6 @@
         <v>6.906816482543945</v>
       </c>
     </row>
-    <row r="738">
-      <c r="A738" t="n">
-        <v>130</v>
-      </c>
-      <c r="B738" t="n">
-        <v>6425</v>
-      </c>
-      <c r="C738" t="n">
-        <v>7.322660446166992</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -32752,7 +32675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C599"/>
+  <dimension ref="A1:C598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39394,17 +39317,6 @@
         <v>8.363360404968262</v>
       </c>
     </row>
-    <row r="599">
-      <c r="A599" t="n">
-        <v>130</v>
-      </c>
-      <c r="B599" t="n">
-        <v>6488</v>
-      </c>
-      <c r="C599" t="n">
-        <v>7.501237869262695</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -39416,7 +39328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C567"/>
+  <dimension ref="A1:C566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45816,17 +45728,6 @@
         <v>5.983598709106445</v>
       </c>
     </row>
-    <row r="567">
-      <c r="A567" t="n">
-        <v>130</v>
-      </c>
-      <c r="B567" t="n">
-        <v>6562</v>
-      </c>
-      <c r="C567" t="n">
-        <v>8.04598331451416</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -45838,7 +45739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48152,17 +48053,6 @@
         <v>7.051090717315674</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>130</v>
-      </c>
-      <c r="B201" t="n">
-        <v>6360</v>
-      </c>
-      <c r="C201" t="n">
-        <v>8.774388313293457</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -48174,7 +48064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C372"/>
+  <dimension ref="A1:C371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52281,17 +52171,6 @@
         <v>4.62705135345459</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>1073</v>
-      </c>
-      <c r="B372" t="n">
-        <v>6799</v>
-      </c>
-      <c r="C372" t="n">
-        <v>4.356191158294678</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -52303,7 +52182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C349"/>
+  <dimension ref="A1:C348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56155,17 +56034,6 @@
         <v>5.94814920425415</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>130</v>
-      </c>
-      <c r="B349" t="n">
-        <v>3667</v>
-      </c>
-      <c r="C349" t="n">
-        <v>7.649320125579834</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -56177,7 +56045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C280"/>
+  <dimension ref="A1:C279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59276,17 +59144,6 @@
         <v>5.967150688171387</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B280" t="n">
-        <v>6728</v>
-      </c>
-      <c r="C280" t="n">
-        <v>14.99595260620117</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -59298,7 +59155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C304"/>
+  <dimension ref="A1:C303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62675,17 +62532,6 @@
         <v>4.770503044128418</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>130</v>
-      </c>
-      <c r="B304" t="n">
-        <v>6799</v>
-      </c>
-      <c r="C304" t="n">
-        <v>4.614262104034424</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -62697,7 +62543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63918,17 +63764,6 @@
         <v>6.349173545837402</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>780</v>
-      </c>
-      <c r="B104" t="n">
-        <v>6671</v>
-      </c>
-      <c r="C104" t="n">
-        <v>9.758411407470703</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -63940,7 +63775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65139,17 +64974,6 @@
         <v>6.72389030456543</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>780</v>
-      </c>
-      <c r="B108" t="n">
-        <v>6799</v>
-      </c>
-      <c r="C108" t="n">
-        <v>6.982842922210693</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -65161,7 +64985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65551,17 +65375,6 @@
         <v>5.956531524658203</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>130</v>
-      </c>
-      <c r="B35" t="n">
-        <v>6749</v>
-      </c>
-      <c r="C35" t="n">
-        <v>7.192011833190918</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -65573,7 +65386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66104,17 +65917,6 @@
         <v>4.479612350463867</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>423</v>
-      </c>
-      <c r="B48" t="n">
-        <v>6799</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4.429802894592285</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -66126,7 +65928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C800"/>
+  <dimension ref="A1:C799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75045,17 +74847,6 @@
         <v>6.858291149139404</v>
       </c>
     </row>
-    <row r="800">
-      <c r="A800" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B800" t="n">
-        <v>5131</v>
-      </c>
-      <c r="C800" t="n">
-        <v>7.169937133789062</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -75067,7 +74858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75184,17 +74975,6 @@
         <v>6.13732385635376</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>130</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4416</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7.508481979370117</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -75206,7 +74986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76795,17 +76575,6 @@
         <v>6.022951602935791</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>130</v>
-      </c>
-      <c r="B140" t="n">
-        <v>4995</v>
-      </c>
-      <c r="C140" t="n">
-        <v>8.552557945251465</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -76817,7 +76586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C280"/>
+  <dimension ref="A1:C279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79904,17 +79673,6 @@
         <v>6.047016143798828</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>130</v>
-      </c>
-      <c r="B280" t="n">
-        <v>5270</v>
-      </c>
-      <c r="C280" t="n">
-        <v>10.95885181427002</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -79926,7 +79684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:C228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82484,17 +82242,6 @@
         <v>5.045548915863037</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B229" t="n">
-        <v>5400</v>
-      </c>
-      <c r="C229" t="n">
-        <v>6.785216808319092</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -82506,7 +82253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C467"/>
+  <dimension ref="A1:C466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87680,17 +87427,6 @@
         <v>5.842303276062012</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" t="n">
-        <v>780</v>
-      </c>
-      <c r="B467" t="n">
-        <v>5678</v>
-      </c>
-      <c r="C467" t="n">
-        <v>10.52794361114502</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -87702,7 +87438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88160,17 +87896,6 @@
         <v>5.930993556976318</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>130</v>
-      </c>
-      <c r="B39" t="n">
-        <v>5330</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5.698581218719482</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/min_results_per_frame.xlsx
+++ b/results/min_results_per_frame.xlsx
@@ -31,7 +31,6 @@
     <sheet name="1465" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="1359" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="1374" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="1400" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C447"/>
+  <dimension ref="A1:C448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5408,6 +5407,17 @@
         <v>5.910991668701172</v>
       </c>
     </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>130</v>
+      </c>
+      <c r="B448" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C448" t="n">
+        <v>5.670188426971436</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5419,7 +5429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C541"/>
+  <dimension ref="A1:C542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11390,6 +11400,17 @@
       </c>
       <c r="C541" t="n">
         <v>7.283039093017578</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>780</v>
+      </c>
+      <c r="B542" t="n">
+        <v>5887</v>
+      </c>
+      <c r="C542" t="n">
+        <v>6.795814037322998</v>
       </c>
     </row>
   </sheetData>
@@ -17684,7 +17705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17773,6 +17794,17 @@
       </c>
       <c r="C7" t="n">
         <v>6.022099494934082</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>130</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.874401092529297</v>
       </c>
     </row>
   </sheetData>
@@ -32675,7 +32707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C598"/>
+  <dimension ref="A1:C599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39315,6 +39347,17 @@
       </c>
       <c r="C598" t="n">
         <v>8.363360404968262</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>130</v>
+      </c>
+      <c r="B599" t="n">
+        <v>6488</v>
+      </c>
+      <c r="C599" t="n">
+        <v>7.501237869262695</v>
       </c>
     </row>
   </sheetData>
@@ -65380,13 +65423,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65413,548 +65456,6 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6753</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.152956008911133</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>423</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6754</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.114089012145996</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>423</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6755</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.510342121124268</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>423</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6756</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.096706867218018</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>423</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6757</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.526371955871582</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>423</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6758</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5.33073616027832</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>423</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6759</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.993261814117432</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>423</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6760</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.211358547210693</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>423</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6761</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5.44364070892334</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>423</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6762</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.166425704956055</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>423</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6763</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5.535279273986816</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>423</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6764</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5.297610759735107</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>423</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6765</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5.268365859985352</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>423</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6766</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5.195233345031738</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>423</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6767</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4.84274435043335</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>423</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6768</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.709754943847656</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>455</v>
-      </c>
-      <c r="B18" t="n">
-        <v>6769</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.587139129638672</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>423</v>
-      </c>
-      <c r="B19" t="n">
-        <v>6770</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.597070693969727</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>423</v>
-      </c>
-      <c r="B20" t="n">
-        <v>6771</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4.343689441680908</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>423</v>
-      </c>
-      <c r="B21" t="n">
-        <v>6772</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4.647156715393066</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>423</v>
-      </c>
-      <c r="B22" t="n">
-        <v>6773</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5.214375019073486</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>423</v>
-      </c>
-      <c r="B23" t="n">
-        <v>6774</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4.381709575653076</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>423</v>
-      </c>
-      <c r="B24" t="n">
-        <v>6775</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5.22590970993042</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>423</v>
-      </c>
-      <c r="B25" t="n">
-        <v>6776</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4.456737041473389</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>423</v>
-      </c>
-      <c r="B26" t="n">
-        <v>6777</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4.569462299346924</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>423</v>
-      </c>
-      <c r="B27" t="n">
-        <v>6778</v>
-      </c>
-      <c r="C27" t="n">
-        <v>4.778100490570068</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>423</v>
-      </c>
-      <c r="B28" t="n">
-        <v>6779</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3.940016508102417</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>423</v>
-      </c>
-      <c r="B29" t="n">
-        <v>6780</v>
-      </c>
-      <c r="C29" t="n">
-        <v>5.310635089874268</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>423</v>
-      </c>
-      <c r="B30" t="n">
-        <v>6781</v>
-      </c>
-      <c r="C30" t="n">
-        <v>5.089674949645996</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>423</v>
-      </c>
-      <c r="B31" t="n">
-        <v>6782</v>
-      </c>
-      <c r="C31" t="n">
-        <v>5.248287200927734</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>423</v>
-      </c>
-      <c r="B32" t="n">
-        <v>6783</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4.430650234222412</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>423</v>
-      </c>
-      <c r="B33" t="n">
-        <v>6784</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3.910327911376953</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>423</v>
-      </c>
-      <c r="B34" t="n">
-        <v>6785</v>
-      </c>
-      <c r="C34" t="n">
-        <v>5.614177703857422</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>423</v>
-      </c>
-      <c r="B35" t="n">
-        <v>6786</v>
-      </c>
-      <c r="C35" t="n">
-        <v>5.343356609344482</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>423</v>
-      </c>
-      <c r="B36" t="n">
-        <v>6787</v>
-      </c>
-      <c r="C36" t="n">
-        <v>5.161159515380859</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>423</v>
-      </c>
-      <c r="B37" t="n">
-        <v>6788</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.378898620605469</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>423</v>
-      </c>
-      <c r="B38" t="n">
-        <v>6789</v>
-      </c>
-      <c r="C38" t="n">
-        <v>4.383694648742676</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>423</v>
-      </c>
-      <c r="B39" t="n">
-        <v>6790</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4.497639656066895</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>423</v>
-      </c>
-      <c r="B40" t="n">
-        <v>6791</v>
-      </c>
-      <c r="C40" t="n">
-        <v>4.624322891235352</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>423</v>
-      </c>
-      <c r="B41" t="n">
-        <v>6792</v>
-      </c>
-      <c r="C41" t="n">
-        <v>4.398424625396729</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>423</v>
-      </c>
-      <c r="B42" t="n">
-        <v>6793</v>
-      </c>
-      <c r="C42" t="n">
-        <v>4.5817551612854</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>423</v>
-      </c>
-      <c r="B43" t="n">
-        <v>6794</v>
-      </c>
-      <c r="C43" t="n">
-        <v>4.621940612792969</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>423</v>
-      </c>
-      <c r="B44" t="n">
-        <v>6795</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4.363060474395752</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>423</v>
-      </c>
-      <c r="B45" t="n">
-        <v>6796</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4.777724266052246</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>423</v>
-      </c>
-      <c r="B46" t="n">
-        <v>6797</v>
-      </c>
-      <c r="C46" t="n">
-        <v>4.619060516357422</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>423</v>
-      </c>
-      <c r="B47" t="n">
-        <v>6798</v>
-      </c>
-      <c r="C47" t="n">
-        <v>4.479612350463867</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C799"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>residue</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>frame</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>min_distance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
         <v>780</v>
       </c>
       <c r="B2" t="n">
@@ -74845,6 +74346,17 @@
       </c>
       <c r="C799" t="n">
         <v>6.858291149139404</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B800" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C800" t="n">
+        <v>7.169937133789062</v>
       </c>
     </row>
   </sheetData>
@@ -87438,7 +86950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87896,6 +87408,28 @@
         <v>5.930993556976318</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>130</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5330</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5.698581218719482</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5331</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6.957254886627197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/min_results_per_frame.xlsx
+++ b/results/min_results_per_frame.xlsx
@@ -1,60 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1309" sheetId="1" r:id="rId1"/>
-    <sheet name="1320" sheetId="2" r:id="rId2"/>
-    <sheet name="1403" sheetId="3" r:id="rId3"/>
-    <sheet name="1469" sheetId="4" r:id="rId4"/>
+    <sheet name="1309" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1320" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1403" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1469" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="4">
-  <si>
-    <t>residue</t>
-  </si>
-  <si>
-    <t>frame</t>
-  </si>
-  <si>
-    <t>min_distance</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,35 +49,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,3210 +423,3292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>residue</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>frame</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>min_distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1105</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>5300</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>5.743742942810059</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>1105</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>5301</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>5.651371955871582</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>1105</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>5302</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>6.240719318389893</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>5303</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>6.751975893974304</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>5304</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>7.513747334480286</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>780</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>5305</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>5.865809917449951</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>780</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>5306</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>6.046424388885498</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>780</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>5307</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>5.622193813323975</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>1105</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>5308</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>5.596156597137451</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>1105</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>5309</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>6.932372093200684</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>780</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>5310</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>5.886963844299316</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>1105</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>5311</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>5.592226505279541</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>1105</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>5312</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>7.086111545562744</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>130</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>5313</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>5.179678916931152</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>130</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>5314</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>7.266650676727295</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>423</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" t="n">
+        <v>423</v>
+      </c>
+      <c r="B17" t="n">
         <v>5315</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>5.910902976989746</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>423</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" t="n">
+        <v>423</v>
+      </c>
+      <c r="B18" t="n">
         <v>5316</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>5.267848968505859</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>423</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" t="n">
+        <v>423</v>
+      </c>
+      <c r="B19" t="n">
         <v>5317</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>5.984511852264404</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>423</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" t="n">
+        <v>423</v>
+      </c>
+      <c r="B20" t="n">
         <v>5318</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>5.273306369781494</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>423</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" t="n">
+        <v>423</v>
+      </c>
+      <c r="B21" t="n">
         <v>5319</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>5.35072660446167</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>423</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" t="n">
+        <v>423</v>
+      </c>
+      <c r="B22" t="n">
         <v>5320</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>5.945459365844727</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>423</v>
-      </c>
-      <c r="B23">
+    <row r="23">
+      <c r="A23" t="n">
+        <v>423</v>
+      </c>
+      <c r="B23" t="n">
         <v>5321</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>5.539866924285889</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>423</v>
-      </c>
-      <c r="B24">
+    <row r="24">
+      <c r="A24" t="n">
+        <v>423</v>
+      </c>
+      <c r="B24" t="n">
         <v>5322</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>6.006140232086182</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>423</v>
-      </c>
-      <c r="B25">
+    <row r="25">
+      <c r="A25" t="n">
+        <v>423</v>
+      </c>
+      <c r="B25" t="n">
         <v>5323</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>5.546951293945312</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>423</v>
-      </c>
-      <c r="B26">
+    <row r="26">
+      <c r="A26" t="n">
+        <v>423</v>
+      </c>
+      <c r="B26" t="n">
         <v>5324</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>5.324005603790283</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>130</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>5325</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>6.515347003936768</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>455</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>5326</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>5.860398769378662</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>130</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>5327</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>5.792168140411377</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>130</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>5328</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>7.258335590362549</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>423</v>
-      </c>
-      <c r="B31">
+    <row r="31">
+      <c r="A31" t="n">
+        <v>423</v>
+      </c>
+      <c r="B31" t="n">
         <v>5329</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>5.257443904876709</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>423</v>
-      </c>
-      <c r="B32">
+    <row r="32">
+      <c r="A32" t="n">
+        <v>423</v>
+      </c>
+      <c r="B32" t="n">
         <v>5330</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>5.476312637329102</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>423</v>
-      </c>
-      <c r="B33">
+    <row r="33">
+      <c r="A33" t="n">
+        <v>423</v>
+      </c>
+      <c r="B33" t="n">
         <v>5331</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>4.861815452575684</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>423</v>
-      </c>
-      <c r="B34">
+    <row r="34">
+      <c r="A34" t="n">
+        <v>423</v>
+      </c>
+      <c r="B34" t="n">
         <v>5332</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>5.476478099822998</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>423</v>
-      </c>
-      <c r="B35">
+    <row r="35">
+      <c r="A35" t="n">
+        <v>423</v>
+      </c>
+      <c r="B35" t="n">
         <v>5333</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>6.019650459289551</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>423</v>
-      </c>
-      <c r="B36">
+    <row r="36">
+      <c r="A36" t="n">
+        <v>423</v>
+      </c>
+      <c r="B36" t="n">
         <v>5334</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>5.687237739562988</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>423</v>
-      </c>
-      <c r="B37">
+    <row r="37">
+      <c r="A37" t="n">
+        <v>423</v>
+      </c>
+      <c r="B37" t="n">
         <v>5335</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>4.41484260559082</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>423</v>
-      </c>
-      <c r="B38">
+    <row r="38">
+      <c r="A38" t="n">
+        <v>423</v>
+      </c>
+      <c r="B38" t="n">
         <v>5336</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>4.083509922027588</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>423</v>
-      </c>
-      <c r="B39">
+    <row r="39">
+      <c r="A39" t="n">
+        <v>423</v>
+      </c>
+      <c r="B39" t="n">
         <v>5337</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>3.853903293609619</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>423</v>
-      </c>
-      <c r="B40">
+    <row r="40">
+      <c r="A40" t="n">
+        <v>423</v>
+      </c>
+      <c r="B40" t="n">
         <v>5338</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>4.504843235015869</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>423</v>
-      </c>
-      <c r="B41">
+    <row r="41">
+      <c r="A41" t="n">
+        <v>423</v>
+      </c>
+      <c r="B41" t="n">
         <v>5339</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>4.322039604187012</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>423</v>
-      </c>
-      <c r="B42">
+    <row r="42">
+      <c r="A42" t="n">
+        <v>423</v>
+      </c>
+      <c r="B42" t="n">
         <v>5340</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>4.756167411804199</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>423</v>
-      </c>
-      <c r="B43">
+    <row r="43">
+      <c r="A43" t="n">
+        <v>423</v>
+      </c>
+      <c r="B43" t="n">
         <v>5341</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>4.99824857711792</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>423</v>
-      </c>
-      <c r="B44">
+    <row r="44">
+      <c r="A44" t="n">
+        <v>423</v>
+      </c>
+      <c r="B44" t="n">
         <v>5342</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>5.041932106018066</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" t="n">
         <v>780</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>5343</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>7.175079345703125</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" t="n">
         <v>780</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>5344</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>7.409799575805664</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" t="n">
         <v>455</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>5345</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>5.31146764755249</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" t="n">
         <v>455</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>5346</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>5.254364967346191</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" t="n">
         <v>455</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>5347</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>6.162925720214844</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" t="n">
         <v>455</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>5348</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>5.463024616241455</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" t="n">
         <v>455</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>5349</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>5.74116849899292</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" t="n">
         <v>455</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>5350</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>6.112217903137207</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" t="n">
         <v>455</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>5351</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>5.878659248352051</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" t="n">
         <v>130</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>5352</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>6.971388816833496</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>423</v>
-      </c>
-      <c r="B55">
+    <row r="55">
+      <c r="A55" t="n">
+        <v>423</v>
+      </c>
+      <c r="B55" t="n">
         <v>5353</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>6.982768058776855</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" t="n">
         <v>455</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>5354</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>7.099720001220703</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" t="n">
         <v>455</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>5355</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>6.893405914306641</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" t="n">
         <v>780</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>5356</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>6.018168449401855</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" t="n">
         <v>780</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>5357</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>5.454941272735596</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" t="n">
         <v>130</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>5358</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>7.281308650970459</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>423</v>
-      </c>
-      <c r="B61">
+    <row r="61">
+      <c r="A61" t="n">
+        <v>423</v>
+      </c>
+      <c r="B61" t="n">
         <v>5359</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>8.020040512084961</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
-        <v>423</v>
-      </c>
-      <c r="B62">
+    <row r="62">
+      <c r="A62" t="n">
+        <v>423</v>
+      </c>
+      <c r="B62" t="n">
         <v>5360</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>5.984348773956299</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" t="n">
         <v>455</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>5361</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>5.265137672424316</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>423</v>
-      </c>
-      <c r="B64">
+    <row r="64">
+      <c r="A64" t="n">
+        <v>423</v>
+      </c>
+      <c r="B64" t="n">
         <v>5362</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>5.245985984802246</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
-        <v>423</v>
-      </c>
-      <c r="B65">
+    <row r="65">
+      <c r="A65" t="n">
+        <v>423</v>
+      </c>
+      <c r="B65" t="n">
         <v>5363</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>4.744120121002197</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
-        <v>423</v>
-      </c>
-      <c r="B66">
+    <row r="66">
+      <c r="A66" t="n">
+        <v>423</v>
+      </c>
+      <c r="B66" t="n">
         <v>5364</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>4.295615196228027</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
-        <v>423</v>
-      </c>
-      <c r="B67">
+    <row r="67">
+      <c r="A67" t="n">
+        <v>423</v>
+      </c>
+      <c r="B67" t="n">
         <v>5365</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>5.186422348022461</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
-        <v>423</v>
-      </c>
-      <c r="B68">
+    <row r="68">
+      <c r="A68" t="n">
+        <v>423</v>
+      </c>
+      <c r="B68" t="n">
         <v>5366</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>4.353850841522217</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
+    <row r="69">
+      <c r="A69" t="n">
         <v>130</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>5367</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>5.284403324127197</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
-        <v>423</v>
-      </c>
-      <c r="B70">
+    <row r="70">
+      <c r="A70" t="n">
+        <v>423</v>
+      </c>
+      <c r="B70" t="n">
         <v>5368</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>4.362082004547119</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
-        <v>423</v>
-      </c>
-      <c r="B71">
+    <row r="71">
+      <c r="A71" t="n">
+        <v>423</v>
+      </c>
+      <c r="B71" t="n">
         <v>5369</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>4.461941719055176</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
-        <v>423</v>
-      </c>
-      <c r="B72">
+    <row r="72">
+      <c r="A72" t="n">
+        <v>423</v>
+      </c>
+      <c r="B72" t="n">
         <v>5370</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>5.249207019805908</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
-        <v>423</v>
-      </c>
-      <c r="B73">
+    <row r="73">
+      <c r="A73" t="n">
+        <v>423</v>
+      </c>
+      <c r="B73" t="n">
         <v>5371</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>6.84553337097168</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
-        <v>423</v>
-      </c>
-      <c r="B74">
+    <row r="74">
+      <c r="A74" t="n">
+        <v>423</v>
+      </c>
+      <c r="B74" t="n">
         <v>5372</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>7.304627895355225</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>423</v>
-      </c>
-      <c r="B75">
+    <row r="75">
+      <c r="A75" t="n">
+        <v>423</v>
+      </c>
+      <c r="B75" t="n">
         <v>5373</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>7.123592376708984</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>423</v>
-      </c>
-      <c r="B76">
+    <row r="76">
+      <c r="A76" t="n">
+        <v>423</v>
+      </c>
+      <c r="B76" t="n">
         <v>5374</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>8.271064758300781</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
+    <row r="77">
+      <c r="A77" t="n">
         <v>780</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>5375</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>7.97749137878418</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
+    <row r="78">
+      <c r="A78" t="n">
         <v>130</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>5376</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>6.116068363189697</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
+    <row r="79">
+      <c r="A79" t="n">
         <v>130</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>5377</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>6.831032752990723</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
+    <row r="80">
+      <c r="A80" t="n">
         <v>130</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>5378</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>5.982270240783691</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
+    <row r="81">
+      <c r="A81" t="n">
         <v>130</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>5379</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>7.57570743560791</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>423</v>
-      </c>
-      <c r="B82">
+    <row r="82">
+      <c r="A82" t="n">
+        <v>423</v>
+      </c>
+      <c r="B82" t="n">
         <v>5380</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>7.091971874237061</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
+    <row r="83">
+      <c r="A83" t="n">
         <v>130</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>5381</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>8.255924224853516</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
+    <row r="84">
+      <c r="A84" t="n">
         <v>130</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>5382</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>7.212966918945312</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
-        <v>423</v>
-      </c>
-      <c r="B85">
+    <row r="85">
+      <c r="A85" t="n">
+        <v>423</v>
+      </c>
+      <c r="B85" t="n">
         <v>5383</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>7.256601333618164</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>423</v>
-      </c>
-      <c r="B86">
+    <row r="86">
+      <c r="A86" t="n">
+        <v>423</v>
+      </c>
+      <c r="B86" t="n">
         <v>5384</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>6.630290031433105</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
+    <row r="87">
+      <c r="A87" t="n">
         <v>130</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>5385</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>6.567269802093506</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
+    <row r="88">
+      <c r="A88" t="n">
         <v>130</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>5386</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>7.244022369384766</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
+    <row r="89">
+      <c r="A89" t="n">
         <v>130</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>5387</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>5.733748912811279</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
+    <row r="90">
+      <c r="A90" t="n">
         <v>130</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>5388</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>5.037984371185303</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
+    <row r="91">
+      <c r="A91" t="n">
         <v>130</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>5389</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>6.427479267120361</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
+    <row r="92">
+      <c r="A92" t="n">
         <v>130</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>5390</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>7.785059452056885</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93">
+    <row r="93">
+      <c r="A93" t="n">
         <v>98</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>5391</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>4.405107498168945</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
+    <row r="94">
+      <c r="A94" t="n">
         <v>98</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>5392</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>4.804638862609863</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
+    <row r="95">
+      <c r="A95" t="n">
         <v>98</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>5393</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>4.335795402526855</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
+    <row r="96">
+      <c r="A96" t="n">
         <v>98</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>5394</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>4.728024482727051</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
+    <row r="97">
+      <c r="A97" t="n">
         <v>98</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>5395</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>6.487887382507324</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
-        <v>423</v>
-      </c>
-      <c r="B98">
+    <row r="98">
+      <c r="A98" t="n">
+        <v>423</v>
+      </c>
+      <c r="B98" t="n">
         <v>5396</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>6.013765335083008</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
-        <v>423</v>
-      </c>
-      <c r="B99">
+    <row r="99">
+      <c r="A99" t="n">
+        <v>423</v>
+      </c>
+      <c r="B99" t="n">
         <v>5397</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>6.311241626739502</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>423</v>
-      </c>
-      <c r="B100">
+    <row r="100">
+      <c r="A100" t="n">
+        <v>423</v>
+      </c>
+      <c r="B100" t="n">
         <v>5398</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>5.459918975830078</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
+    <row r="101">
+      <c r="A101" t="n">
         <v>130</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>5399</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>6.919281482696533</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>423</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>residue</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>frame</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>min_distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>423</v>
+      </c>
+      <c r="B2" t="n">
         <v>5300</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>5.744814395904541</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>423</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="n">
+        <v>423</v>
+      </c>
+      <c r="B3" t="n">
         <v>5301</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>5.63809061050415</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>423</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="n">
+        <v>423</v>
+      </c>
+      <c r="B4" t="n">
         <v>5302</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>5.86890172958374</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>423</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>423</v>
+      </c>
+      <c r="B5" t="n">
         <v>5303</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>5.988047122955322</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>423</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="n">
+        <v>423</v>
+      </c>
+      <c r="B6" t="n">
         <v>5304</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>6.309613704681396</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>423</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>423</v>
+      </c>
+      <c r="B7" t="n">
         <v>5305</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>5.801314830780029</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>423</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="n">
+        <v>423</v>
+      </c>
+      <c r="B8" t="n">
         <v>5306</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>6.694934844970703</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>423</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="n">
+        <v>423</v>
+      </c>
+      <c r="B9" t="n">
         <v>5307</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>6.025285720825195</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>423</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="n">
+        <v>423</v>
+      </c>
+      <c r="B10" t="n">
         <v>5308</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>4.709299564361572</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>423</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" t="n">
+        <v>423</v>
+      </c>
+      <c r="B11" t="n">
         <v>5309</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>4.650408744812012</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>455</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>5310</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>6.148744106292725</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>455</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>5311</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>7.335005760192871</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>423</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" t="n">
+        <v>423</v>
+      </c>
+      <c r="B14" t="n">
         <v>5312</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>5.699427604675293</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>423</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" t="n">
+        <v>423</v>
+      </c>
+      <c r="B15" t="n">
         <v>5313</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>4.631781101226807</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>455</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>5314</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>6.284260272979736</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>1105</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>5315</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>7.311583042144775</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>130</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>5316</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>7.433420181274414</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>130</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>5317</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>6.06935977935791</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>1105</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>5318</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>7.004786968231201</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>1105</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>5319</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>7.546234607696533</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>1105</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>5320</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>5.839945793151855</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>1105</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>5321</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>6.112180233001709</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>1073</v>
-      </c>
-      <c r="B24">
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B24" t="n">
         <v>5322</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>5.003147125244141</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>1073</v>
-      </c>
-      <c r="B25">
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B25" t="n">
         <v>5323</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>4.788681030273438</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>1073</v>
-      </c>
-      <c r="B26">
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B26" t="n">
         <v>5324</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>4.841403484344482</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>1073</v>
-      </c>
-      <c r="B27">
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B27" t="n">
         <v>5325</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>5.121313571929932</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>1073</v>
-      </c>
-      <c r="B28">
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B28" t="n">
         <v>5326</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>4.776082038879395</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>1073</v>
-      </c>
-      <c r="B29">
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B29" t="n">
         <v>5327</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>4.301768779754639</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>1073</v>
-      </c>
-      <c r="B30">
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B30" t="n">
         <v>5328</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>4.3529372215271</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>1073</v>
-      </c>
-      <c r="B31">
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B31" t="n">
         <v>5329</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>4.459955215454102</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>1073</v>
-      </c>
-      <c r="B32">
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B32" t="n">
         <v>5330</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>4.309033393859863</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="n">
         <v>1105</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>5331</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>4.870184898376465</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>1073</v>
-      </c>
-      <c r="B34">
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B34" t="n">
         <v>5332</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>4.995232582092285</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>1073</v>
-      </c>
-      <c r="B35">
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B35" t="n">
         <v>5333</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>4.612978458404541</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>1073</v>
-      </c>
-      <c r="B36">
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B36" t="n">
         <v>5334</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>5.035190582275391</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>1073</v>
-      </c>
-      <c r="B37">
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B37" t="n">
         <v>5335</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>5.012984275817871</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>1073</v>
-      </c>
-      <c r="B38">
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B38" t="n">
         <v>5336</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>4.749541759490967</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>1073</v>
-      </c>
-      <c r="B39">
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B39" t="n">
         <v>5337</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>5.305310726165771</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>1073</v>
-      </c>
-      <c r="B40">
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B40" t="n">
         <v>5338</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>4.805971622467041</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>1073</v>
-      </c>
-      <c r="B41">
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B41" t="n">
         <v>5339</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>4.958158493041992</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>1073</v>
-      </c>
-      <c r="B42">
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B42" t="n">
         <v>5340</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>4.824055194854736</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" t="n">
         <v>1105</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>5341</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>6.314234256744385</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" t="n">
         <v>98</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>5342</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>4.789384365081787</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" t="n">
         <v>98</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>5343</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>4.377403736114502</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" t="n">
         <v>98</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>5344</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>4.492449283599854</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" t="n">
         <v>98</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>5345</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>4.608502388000488</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" t="n">
         <v>98</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>5346</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>4.175100803375244</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" t="n">
         <v>98</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>5347</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>4.697005748748779</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" t="n">
         <v>98</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>5348</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>4.49223804473877</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" t="n">
         <v>98</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>5349</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>4.60008430480957</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" t="n">
         <v>130</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>5350</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>7.014968872070312</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" t="n">
         <v>98</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>5351</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>4.230473041534424</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" t="n">
         <v>98</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>5352</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>3.941482305526733</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" t="n">
         <v>98</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>5353</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>4.217658042907715</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" t="n">
         <v>98</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>5354</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>3.889345407485962</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" t="n">
         <v>98</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>5355</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>3.976249694824219</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" t="n">
         <v>98</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>5356</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>4.472882270812988</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" t="n">
         <v>98</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>5357</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>4.394952774047852</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" t="n">
         <v>98</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>5358</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>5.189342975616455</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
+    <row r="61">
+      <c r="A61" t="n">
         <v>98</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>5359</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>3.930014133453369</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
+    <row r="62">
+      <c r="A62" t="n">
         <v>98</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>5360</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>5.06673526763916</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" t="n">
         <v>1105</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>5361</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>7.073685169219971</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
+    <row r="64">
+      <c r="A64" t="n">
         <v>1105</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>5362</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>6.053096294403076</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
+    <row r="65">
+      <c r="A65" t="n">
         <v>1105</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>5363</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>5.359975814819336</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
+    <row r="66">
+      <c r="A66" t="n">
         <v>1105</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>5364</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>5.447129726409912</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
+    <row r="67">
+      <c r="A67" t="n">
         <v>1105</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>5365</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>6.207167148590088</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
+    <row r="68">
+      <c r="A68" t="n">
         <v>1105</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>5366</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>4.437314987182617</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
+    <row r="69">
+      <c r="A69" t="n">
         <v>780</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>5367</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>6.730654239654541</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
+    <row r="70">
+      <c r="A70" t="n">
         <v>780</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>5368</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>6.932715892791748</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
+    <row r="71">
+      <c r="A71" t="n">
         <v>455</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>5369</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>6.034462928771973</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
+    <row r="72">
+      <c r="A72" t="n">
         <v>98</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>5370</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>6.983009338378906</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
+    <row r="73">
+      <c r="A73" t="n">
         <v>130</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>5371</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>7.504747867584229</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
+    <row r="74">
+      <c r="A74" t="n">
         <v>130</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>5372</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>6.541861057281494</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
+    <row r="75">
+      <c r="A75" t="n">
         <v>455</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>5373</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>7.341489315032959</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
+    <row r="76">
+      <c r="A76" t="n">
         <v>98</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>5374</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>5.157897472381592</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
+    <row r="77">
+      <c r="A77" t="n">
         <v>98</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>5375</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>4.917650699615479</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
+    <row r="78">
+      <c r="A78" t="n">
         <v>98</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>5376</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>4.739672183990479</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
+    <row r="79">
+      <c r="A79" t="n">
         <v>98</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>5377</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>4.154686450958252</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
+    <row r="80">
+      <c r="A80" t="n">
         <v>1105</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>5378</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>6.293583393096924</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
+    <row r="81">
+      <c r="A81" t="n">
         <v>780</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>5379</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>5.605924606323242</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
+    <row r="82">
+      <c r="A82" t="n">
         <v>780</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>5380</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>5.613491535186768</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
+    <row r="83">
+      <c r="A83" t="n">
         <v>780</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>5381</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>6.068187713623047</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
+    <row r="84">
+      <c r="A84" t="n">
         <v>780</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>5382</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>5.485645771026611</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
+    <row r="85">
+      <c r="A85" t="n">
         <v>1105</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>5383</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>6.033979415893555</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
+    <row r="86">
+      <c r="A86" t="n">
         <v>130</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>5384</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>6.59138298034668</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
+    <row r="87">
+      <c r="A87" t="n">
         <v>780</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>5385</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>7.687858104705811</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
+    <row r="88">
+      <c r="A88" t="n">
         <v>780</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>5386</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>7.484547138214111</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
+    <row r="89">
+      <c r="A89" t="n">
         <v>455</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>5387</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>6.412283420562744</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
-        <v>423</v>
-      </c>
-      <c r="B90">
+    <row r="90">
+      <c r="A90" t="n">
+        <v>423</v>
+      </c>
+      <c r="B90" t="n">
         <v>5388</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>7.334934711456299</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
+    <row r="91">
+      <c r="A91" t="n">
         <v>455</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>5389</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>5.903661727905273</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
-        <v>423</v>
-      </c>
-      <c r="B92">
+    <row r="92">
+      <c r="A92" t="n">
+        <v>423</v>
+      </c>
+      <c r="B92" t="n">
         <v>5390</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>7.617875099182129</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93">
+    <row r="93">
+      <c r="A93" t="n">
         <v>780</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>5391</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>6.180547714233398</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
+    <row r="94">
+      <c r="A94" t="n">
         <v>780</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>5392</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>6.949531555175781</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
+    <row r="95">
+      <c r="A95" t="n">
         <v>455</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>5393</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>7.036313056945801</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
+    <row r="96">
+      <c r="A96" t="n">
         <v>748</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>5394</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>6.542594909667969</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
+    <row r="97">
+      <c r="A97" t="n">
         <v>780</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>5395</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>7.673821926116943</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
+    <row r="98">
+      <c r="A98" t="n">
         <v>455</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>5396</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>5.845195293426514</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
-        <v>423</v>
-      </c>
-      <c r="B99">
+    <row r="99">
+      <c r="A99" t="n">
+        <v>423</v>
+      </c>
+      <c r="B99" t="n">
         <v>5397</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>5.950711727142334</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
+    <row r="100">
+      <c r="A100" t="n">
         <v>780</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>5398</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>8.30066967010498</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
+    <row r="101">
+      <c r="A101" t="n">
         <v>1105</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>5399</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>5.045548915863037</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>residue</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>frame</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>min_distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>780</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>5302</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>7.135953426361084</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>1105</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>5303</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>5.810618877410889</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>780</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>5304</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>5.929888248443604</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>130</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>5305</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>7.043500423431396</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>423</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="n">
+        <v>423</v>
+      </c>
+      <c r="B6" t="n">
         <v>5306</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>6.715727806091309</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>780</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>5307</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>7.270374298095703</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>5308</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>5.189467191696167</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>5309</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>5.252411723136902</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>5310</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>5.340844392776489</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>5311</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>5.180479764938354</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>5312</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>5.112359881401062</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>5313</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>5.542937636375427</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>5314</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>5.250655889511108</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>5315</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>5.275774836540222</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>5316</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>5.44362473487854</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>5317</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>5.376834392547607</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>5318</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>5.214860916137695</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>780</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>5319</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>5.592632293701172</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>1105</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>5320</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>6.543459892272949</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>780</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>5321</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>7.213534832000732</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>780</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>5322</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>6.952414989471436</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>1105</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>5323</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>5.785579681396484</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>1105</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>5324</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>5.656766414642334</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>1105</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>5325</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>5.788779735565186</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>1105</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>5326</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>6.334734439849854</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>130</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>5327</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>6.038055419921875</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>1105</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>5328</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>6.966516494750977</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>1105</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>5329</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>5.930993556976318</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>130</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>5330</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>5.698581218719482</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>1105</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>5331</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>6.957254886627197</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>residue</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>frame</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>min_distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>130</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>5347</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>6.419660568237305</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>780</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>5348</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>6.185996532440186</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>780</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>5349</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>5.905637264251709</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>780</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>5350</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>6.004969596862793</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>748</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>5351</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>7.206315040588379</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>5352</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>5.940374851226807</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>5353</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>6.385160207748413</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>5354</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>6.531684517860413</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>5355</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>5.377395987510681</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>98</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>5356</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>7.69365406036377</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>1105</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>5357</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>5.485047340393066</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>1073</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B13" t="n">
         <v>5358</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>4.583221435546875</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>1073</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B14" t="n">
         <v>5359</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>4.840157032012939</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>1073</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B15" t="n">
         <v>5360</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>4.808053016662598</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>1073</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B16" t="n">
         <v>5361</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>4.858726024627686</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>1073</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B17" t="n">
         <v>5362</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>4.89675760269165</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>1073</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B18" t="n">
         <v>5363</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>4.913298606872559</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>1073</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B19" t="n">
         <v>5364</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>4.713846683502197</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>1073</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B20" t="n">
         <v>5365</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>4.792611598968506</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>1073</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B21" t="n">
         <v>5366</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>4.984239101409912</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>1073</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B22" t="n">
         <v>5367</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>4.415747165679932</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>1073</v>
-      </c>
-      <c r="B23">
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B23" t="n">
         <v>5368</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>4.761774063110352</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>1073</v>
-      </c>
-      <c r="B24">
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B24" t="n">
         <v>5369</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>5.279449462890625</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>1073</v>
-      </c>
-      <c r="B25">
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B25" t="n">
         <v>5370</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>4.450873851776123</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>1073</v>
-      </c>
-      <c r="B26">
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B26" t="n">
         <v>5371</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>4.738528728485107</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>1073</v>
-      </c>
-      <c r="B27">
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B27" t="n">
         <v>5372</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>4.786362648010254</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>1073</v>
-      </c>
-      <c r="B28">
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B28" t="n">
         <v>5373</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>4.802009582519531</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>1073</v>
-      </c>
-      <c r="B29">
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B29" t="n">
         <v>5374</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>4.876624584197998</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>1073</v>
-      </c>
-      <c r="B30">
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B30" t="n">
         <v>5375</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>4.925609111785889</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>1073</v>
-      </c>
-      <c r="B31">
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B31" t="n">
         <v>5376</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>4.829013347625732</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>1073</v>
-      </c>
-      <c r="B32">
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B32" t="n">
         <v>5377</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>4.675896644592285</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>1073</v>
-      </c>
-      <c r="B33">
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B33" t="n">
         <v>5378</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>4.896969318389893</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>1073</v>
-      </c>
-      <c r="B34">
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B34" t="n">
         <v>5379</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>4.910852909088135</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>1073</v>
-      </c>
-      <c r="B35">
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B35" t="n">
         <v>5380</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>4.847634315490723</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>1073</v>
-      </c>
-      <c r="B36">
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B36" t="n">
         <v>5381</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>4.810073375701904</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>1073</v>
-      </c>
-      <c r="B37">
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B37" t="n">
         <v>5382</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>4.807206153869629</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>1073</v>
-      </c>
-      <c r="B38">
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B38" t="n">
         <v>5383</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>4.773756980895996</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>1073</v>
-      </c>
-      <c r="B39">
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B39" t="n">
         <v>5384</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>4.967426300048828</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>1073</v>
-      </c>
-      <c r="B40">
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B40" t="n">
         <v>5385</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>4.775094985961914</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>1073</v>
-      </c>
-      <c r="B41">
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B41" t="n">
         <v>5386</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>4.883302688598633</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>1073</v>
-      </c>
-      <c r="B42">
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B42" t="n">
         <v>5387</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>4.897367000579834</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>1073</v>
-      </c>
-      <c r="B43">
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B43" t="n">
         <v>5388</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>4.724961280822754</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>1073</v>
-      </c>
-      <c r="B44">
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B44" t="n">
         <v>5389</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>4.785851001739502</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>1073</v>
-      </c>
-      <c r="B45">
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B45" t="n">
         <v>5390</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>4.683290481567383</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>1073</v>
-      </c>
-      <c r="B46">
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B46" t="n">
         <v>5391</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>4.458000183105469</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>1073</v>
-      </c>
-      <c r="B47">
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B47" t="n">
         <v>5392</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>4.935429096221924</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>1073</v>
-      </c>
-      <c r="B48">
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B48" t="n">
         <v>5393</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>5.05436897277832</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>1073</v>
-      </c>
-      <c r="B49">
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B49" t="n">
         <v>5394</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>4.675193786621094</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>1073</v>
-      </c>
-      <c r="B50">
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B50" t="n">
         <v>5395</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>4.788053035736084</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>1073</v>
-      </c>
-      <c r="B51">
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B51" t="n">
         <v>5396</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>4.626784324645996</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>1073</v>
-      </c>
-      <c r="B52">
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B52" t="n">
         <v>5397</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>4.739831924438477</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>1073</v>
-      </c>
-      <c r="B53">
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B53" t="n">
         <v>5398</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>5.163353443145752</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>1073</v>
-      </c>
-      <c r="B54">
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B54" t="n">
         <v>5399</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>4.325618267059326</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>